--- a/Lab5.xlsx
+++ b/Lab5.xlsx
@@ -1445,7 +1445,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0%"/>
+    <numFmt numFmtId="165" formatCode="#,##0"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
   <fonts count="26">
@@ -2325,7 +2325,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="29" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="29" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2636,7 +2636,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2649,9 +2649,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0"/>
-          <c:y val="0.00863389500069628"/>
-          <c:w val="0.834838709677419"/>
-          <c:h val="0.685559114329481"/>
+          <c:y val="0.00863509749303621"/>
+          <c:w val="0.834650750120987"/>
+          <c:h val="0.685515320334262"/>
         </c:manualLayout>
       </c:layout>
       <c:pieChart>
@@ -2692,10 +2692,8 @@
             </c:spPr>
           </c:dPt>
           <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
                 <a:bodyPr wrap="none"/>
                 <a:lstStyle/>
@@ -2712,15 +2710,14 @@
               </c:txPr>
               <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
+              <c:showVal val="0"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
+              <c:showPercent val="1"/>
               <c:separator> </c:separator>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:numFmt formatCode="General" sourceLinked="1"/>
               <c:txPr>
                 <a:bodyPr wrap="none"/>
                 <a:lstStyle/>
@@ -2737,10 +2734,10 @@
               </c:txPr>
               <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
+              <c:showVal val="0"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
+              <c:showPercent val="1"/>
               <c:separator> </c:separator>
             </c:dLbl>
             <c:txPr>
@@ -2759,10 +2756,10 @@
             </c:txPr>
             <c:dLblPos val="bestFit"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
+            <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
+            <c:showPercent val="1"/>
             <c:separator> </c:separator>
             <c:showLeaderLines val="1"/>
           </c:dLbls>
@@ -2787,10 +2784,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.69</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.31</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2850,7 +2847,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2862,10 +2859,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0623473077298935"/>
-          <c:y val="0.0490167302612269"/>
-          <c:w val="0.918792143066549"/>
-          <c:h val="0.639565600234811"/>
+          <c:x val="0.0623534010946052"/>
+          <c:y val="0.0490239248495523"/>
+          <c:w val="0.918686473807662"/>
+          <c:h val="0.639512696315867"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -3254,11 +3251,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="26768508"/>
-        <c:axId val="37581000"/>
+        <c:axId val="96362633"/>
+        <c:axId val="34561248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="26768508"/>
+        <c:axId val="96362633"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3286,7 +3283,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37581000"/>
+        <c:crossAx val="34561248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3294,7 +3291,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="37581000"/>
+        <c:axId val="34561248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3331,7 +3328,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="26768508"/>
+        <c:crossAx val="96362633"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3389,7 +3386,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3401,10 +3398,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.086060907926569"/>
-          <c:y val="0.0373500230733733"/>
-          <c:w val="0.913832360893696"/>
-          <c:h val="0.484598523304107"/>
+          <c:x val="0.0860454405894995"/>
+          <c:y val="0.0373507189861077"/>
+          <c:w val="0.913724286152901"/>
+          <c:h val="0.484584450402145"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -3446,6 +3443,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3507,6 +3505,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3568,6 +3567,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3629,6 +3629,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3690,6 +3691,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3751,6 +3753,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3812,6 +3815,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3840,17 +3844,17 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="30725405"/>
-        <c:axId val="67013427"/>
+        <c:axId val="88351371"/>
+        <c:axId val="25457423"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="30725405"/>
+        <c:axId val="88351371"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3872,7 +3876,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67013427"/>
+        <c:crossAx val="25457423"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3880,7 +3884,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67013427"/>
+        <c:axId val="25457423"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3895,7 +3899,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3917,7 +3921,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30725405"/>
+        <c:crossAx val="88351371"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3986,9 +3990,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1816560</xdr:colOff>
+      <xdr:colOff>1816200</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>133920</xdr:rowOff>
+      <xdr:rowOff>133560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4002,7 +4006,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="331920" y="1155240"/>
-          <a:ext cx="1631160" cy="1487880"/>
+          <a:ext cx="1630800" cy="1487520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4023,9 +4027,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>37800</xdr:colOff>
+      <xdr:colOff>37440</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>120600</xdr:rowOff>
+      <xdr:rowOff>120240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4034,7 +4038,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="153720" y="3237120"/>
-        <a:ext cx="2231640" cy="2584800"/>
+        <a:ext cx="2231280" cy="2584440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4053,9 +4057,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3014280</xdr:colOff>
+      <xdr:colOff>3013920</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>685080</xdr:rowOff>
+      <xdr:rowOff>684720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4064,7 +4068,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2520720" y="3218760"/>
-        <a:ext cx="3683520" cy="2452680"/>
+        <a:ext cx="3683160" cy="2452320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4083,9 +4087,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2288880</xdr:colOff>
+      <xdr:colOff>2288520</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>151560</xdr:rowOff>
+      <xdr:rowOff>151200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4094,7 +4098,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="6891840" y="9873720"/>
-        <a:ext cx="4690800" cy="5908320"/>
+        <a:ext cx="4689720" cy="5907960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4118,7 +4122,7 @@
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="58.71"/>
@@ -4207,9 +4211,9 @@
       <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.36"/>
@@ -5496,7 +5500,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.9"/>
@@ -6295,7 +6299,7 @@
       <selection pane="topLeft" activeCell="M3" activeCellId="0" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.03"/>
@@ -6303,7 +6307,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="36.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="36.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="37.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.34"/>
   </cols>
   <sheetData>
@@ -6654,11 +6658,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H44" activeCellId="0" sqref="H44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.19"/>
@@ -6666,7 +6670,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="48.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="2.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="35.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="34.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="34.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="0" width="11.52"/>
   </cols>
@@ -7261,7 +7265,7 @@
         <v>323</v>
       </c>
       <c r="C48" s="120" t="n">
-        <v>0.69</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7269,7 +7273,7 @@
         <v>324</v>
       </c>
       <c r="C49" s="120" t="n">
-        <v>0.31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="26.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
